--- a/applications/Brazil/Rio_projections.xlsx
+++ b/applications/Brazil/Rio_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>325955</v>
+        <v>397042</v>
       </c>
       <c r="B4">
         <v>179895</v>
       </c>
       <c r="C4">
-        <v>807283</v>
+        <v>519920</v>
       </c>
       <c r="D4">
-        <v>3.234208520845342</v>
+        <v>3.93955183854666</v>
       </c>
       <c r="E4">
         <v>1.784964003796453</v>
       </c>
       <c r="F4">
-        <v>8.010067516478012</v>
+        <v>5.158778647843753</v>
       </c>
       <c r="G4">
-        <v>1176966</v>
+        <v>1206000</v>
       </c>
       <c r="H4">
         <v>652133</v>
       </c>
       <c r="I4">
-        <v>2181966</v>
+        <v>1194833</v>
       </c>
       <c r="J4">
-        <v>0.5068579977327831</v>
+        <v>0.451003312243868</v>
       </c>
       <c r="K4">
         <v>0.3969048444149659</v>
       </c>
       <c r="L4">
-        <v>0.5396415107376139</v>
+        <v>0.4498443026533903</v>
       </c>
       <c r="M4">
-        <v>170381</v>
+        <v>249039</v>
       </c>
       <c r="N4">
         <v>143581</v>
       </c>
       <c r="O4">
-        <v>344447</v>
+        <v>557708</v>
       </c>
       <c r="P4">
-        <v>1.769194541374969</v>
+        <v>2.585959933264161</v>
       </c>
       <c r="Q4">
         <v>1.490909910407613</v>
       </c>
       <c r="R4">
-        <v>3.576653219507951</v>
+        <v>5.791103170430691</v>
       </c>
       <c r="S4">
-        <v>603000</v>
+        <v>888139</v>
       </c>
       <c r="T4">
         <v>518860</v>
       </c>
       <c r="U4">
-        <v>1292476</v>
+        <v>1659418</v>
       </c>
       <c r="V4">
-        <v>0.5321566216301663</v>
+        <v>0.4914641583075781</v>
       </c>
       <c r="W4">
         <v>0.4202788981853507</v>
       </c>
       <c r="X4">
-        <v>0.5967440581197834</v>
+        <v>0.5395102499777165</v>
       </c>
     </row>
   </sheetData>
